--- a/DungeonShooting_Godot/excel/Sound.xlsx
+++ b/DungeonShooting_Godot/excel/Sound.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12180"/>
+    <workbookView windowWidth="24750" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="122">
   <si>
     <t>Id</t>
   </si>
@@ -136,6 +149,12 @@
   </si>
   <si>
     <t>榴弹发射器</t>
+  </si>
+  <si>
+    <t>shooting0012</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/shooting/Shooting0012.ogg</t>
   </si>
   <si>
     <t>reloading0001</t>
@@ -224,6 +243,12 @@
     <t>res://resource/sound/sfx/reloading/Reloading_begin0012.ogg</t>
   </si>
   <si>
+    <t>reloadBegin0013</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/reloading/Reloading_begin0013.ogg</t>
+  </si>
+  <si>
     <t>reloadFinish0002</t>
   </si>
   <si>
@@ -240,6 +265,12 @@
   </si>
   <si>
     <t>res://resource/sound/sfx/reloading/Reloading_finish0004.ogg</t>
+  </si>
+  <si>
+    <t>reloadFinish0005</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/reloading/Reloading_finish0005.ogg</t>
   </si>
   <si>
     <t>beLoaded0001</t>
@@ -377,7 +408,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1357,22 +1388,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.225" style="1" customWidth="1"/>
-    <col min="2" max="2" width="64.9166666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.0166666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.9583333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.2272727272727" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.9181818181818" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.0181818181818" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.9545454545455" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1" spans="1:4">
@@ -1445,7 +1476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="14" customHeight="1" spans="1:4">
+    <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1459,7 +1490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="14" customHeight="1" spans="1:4">
+    <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1473,7 +1504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="14" customHeight="1" spans="1:4">
+    <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1487,7 +1518,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="14" customHeight="1" spans="1:4">
+    <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1501,7 +1532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" ht="14" customHeight="1" spans="1:4">
+    <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1515,7 +1546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" ht="14" customHeight="1" spans="1:4">
+    <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1529,7 +1560,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" ht="14" customHeight="1" spans="1:4">
+    <row r="12" customHeight="1" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1543,7 +1574,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" ht="14" customHeight="1" spans="1:4">
+    <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -1557,7 +1588,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" ht="14" customHeight="1" spans="1:4">
+    <row r="14" customHeight="1" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -1571,21 +1602,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" ht="14" customHeight="1"/>
-    <row r="16" ht="13" customHeight="1" spans="1:4">
-      <c r="A16" s="1" t="s">
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1"/>
     <row r="17" ht="13" customHeight="1" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>42</v>
@@ -1597,38 +1628,38 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="13" customHeight="1" spans="1:4">
       <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="2">
+    </row>
+    <row r="19" ht="13" customHeight="1" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2">
         <v>1.2</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" ht="13" customHeight="1"/>
-    <row r="20" ht="13" customHeight="1" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
+    </row>
+    <row r="20" ht="13" customHeight="1"/>
     <row r="21" ht="13" customHeight="1" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>50</v>
@@ -1640,11 +1671,11 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="13" customHeight="1" spans="1:4">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1668,10 +1699,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" ht="13" customHeight="1" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" ht="13" customHeight="1" spans="1:4">
       <c r="A24" s="4" t="s">
         <v>56</v>
       </c>
@@ -1681,8 +1712,11 @@
       <c r="C24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" ht="13" customHeight="1" spans="1:4">
+      <c r="D24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" ht="13" customHeight="1" spans="1:3">
       <c r="A25" s="4" t="s">
         <v>58</v>
       </c>
@@ -1692,11 +1726,8 @@
       <c r="C25" s="2">
         <v>1</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" ht="13" customHeight="1" spans="1:3">
+    </row>
+    <row r="26" ht="13" customHeight="1" spans="1:4">
       <c r="A26" s="4" t="s">
         <v>60</v>
       </c>
@@ -1706,8 +1737,11 @@
       <c r="C26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" ht="13" customHeight="1" spans="1:4">
+      <c r="D26" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" ht="13" customHeight="1" spans="1:3">
       <c r="A27" s="4" t="s">
         <v>62</v>
       </c>
@@ -1717,11 +1751,8 @@
       <c r="C27" s="2">
         <v>1</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" ht="13" customHeight="1" spans="1:3">
+    </row>
+    <row r="28" ht="13" customHeight="1" spans="1:4">
       <c r="A28" s="4" t="s">
         <v>64</v>
       </c>
@@ -1729,330 +1760,378 @@
         <v>65</v>
       </c>
       <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" ht="13" customHeight="1" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="29" ht="13" customHeight="1"/>
-    <row r="30" ht="13" customHeight="1" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>66</v>
+    <row r="30" ht="13" customHeight="1" spans="1:3">
+      <c r="A30" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2" t="s">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="31" ht="13" customHeight="1" spans="1:1">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" ht="13" customHeight="1" spans="1:1">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" ht="13" customHeight="1" spans="1:1">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="34" ht="13" customHeight="1"/>
+    <row r="35" ht="13" customHeight="1" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" ht="13" customHeight="1" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2" t="s">
+    <row r="36" ht="13" customHeight="1" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" ht="13" customHeight="1" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="2">
+    <row r="37" ht="13" customHeight="1" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="33" ht="13" customHeight="1"/>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
+    <row r="38" ht="13" customHeight="1" spans="1:3">
+      <c r="A38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
+      <c r="C38" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="39" ht="13" customHeight="1"/>
+    <row r="40" ht="13" customHeight="1"/>
+    <row r="41" ht="13" customHeight="1"/>
+    <row r="42" ht="13" customHeight="1"/>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="C45" s="2">
         <v>1</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C53" s="2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C54" s="2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C55" s="2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C62" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="2">
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="2">
         <v>0.7</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>115</v>
+      <c r="D67" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2150,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2088,7 +2167,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/Sound.xlsx
+++ b/DungeonShooting_Godot/excel/Sound.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="131">
   <si>
     <t>Id</t>
   </si>
@@ -155,6 +155,15 @@
   </si>
   <si>
     <t>res://resource/sound/sfx/shooting/Shooting0012.ogg</t>
+  </si>
+  <si>
+    <t>shooting0013</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/shooting/Shooting0013.ogg</t>
+  </si>
+  <si>
+    <t>P90</t>
   </si>
   <si>
     <t>reloading0001</t>
@@ -219,6 +228,15 @@
     <t>res://resource/sound/sfx/reloading/Reloading_begin0006.ogg</t>
   </si>
   <si>
+    <t>汤姆逊冲锋枪</t>
+  </si>
+  <si>
+    <t>reloadBegin0007</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/reloading/Reloading_begin0007.ogg</t>
+  </si>
+  <si>
     <t>reloadBegin0009</t>
   </si>
   <si>
@@ -403,6 +421,15 @@
   </si>
   <si>
     <t>碰撞</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/common/gold.ogg</t>
+  </si>
+  <si>
+    <t>金币</t>
   </si>
 </sst>
 </file>
@@ -1388,14 +1415,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1616,522 +1643,569 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" customHeight="1"/>
-    <row r="17" ht="13" customHeight="1" spans="1:4">
-      <c r="A17" s="1" t="s">
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C16" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1"/>
+    <row r="18" customHeight="1"/>
+    <row r="19" customHeight="1"/>
+    <row r="20" ht="13" customHeight="1" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" ht="13" customHeight="1" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" ht="13" customHeight="1" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" ht="13" customHeight="1"/>
     <row r="21" ht="13" customHeight="1" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" ht="13" customHeight="1" spans="1:4">
       <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="1" t="s">
+    </row>
+    <row r="23" ht="13" customHeight="1"/>
+    <row r="24" ht="13" customHeight="1" spans="1:4">
+      <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" ht="13" customHeight="1" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="23" ht="13" customHeight="1" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" ht="13" customHeight="1" spans="1:4">
-      <c r="A24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" ht="13" customHeight="1" spans="1:3">
-      <c r="A25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="26" ht="13" customHeight="1" spans="1:4">
       <c r="A26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" ht="13" customHeight="1" spans="1:4">
+      <c r="A27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" ht="13" customHeight="1" spans="1:3">
-      <c r="A27" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="C27" s="2">
         <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="13" customHeight="1" spans="1:4">
       <c r="A28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" ht="13" customHeight="1" spans="1:4">
+      <c r="A29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" ht="13" customHeight="1" spans="1:4">
+      <c r="A30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" ht="13" customHeight="1" spans="1:3">
+      <c r="A31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" ht="13" customHeight="1" spans="1:4">
+      <c r="A32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" ht="13" customHeight="1" spans="1:3">
-      <c r="A29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="2">
+    <row r="33" ht="13" customHeight="1" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="30" ht="13" customHeight="1" spans="1:3">
-      <c r="A30" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="2">
+    <row r="34" ht="13" customHeight="1" spans="1:3">
+      <c r="A34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="31" ht="13" customHeight="1" spans="1:1">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="32" ht="13" customHeight="1" spans="1:1">
-      <c r="A32" s="4"/>
-    </row>
-    <row r="33" ht="13" customHeight="1" spans="1:1">
-      <c r="A33" s="4"/>
-    </row>
-    <row r="34" ht="13" customHeight="1"/>
-    <row r="35" ht="13" customHeight="1" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2" t="s">
+    <row r="35" ht="13" customHeight="1" spans="1:1">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36" ht="13" customHeight="1" spans="1:1">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37" ht="13" customHeight="1" spans="1:1">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38" ht="13" customHeight="1"/>
+    <row r="39" ht="13" customHeight="1" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" ht="13" customHeight="1" spans="1:4">
-      <c r="A36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2" t="s">
+    <row r="40" ht="13" customHeight="1" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" ht="13" customHeight="1" spans="1:3">
-      <c r="A37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="2">
+    <row r="41" ht="13" customHeight="1" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="38" ht="13" customHeight="1" spans="1:3">
-      <c r="A38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="2">
+    <row r="42" ht="13" customHeight="1" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="39" ht="13" customHeight="1"/>
-    <row r="40" ht="13" customHeight="1"/>
-    <row r="41" ht="13" customHeight="1"/>
-    <row r="42" ht="13" customHeight="1"/>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1" t="s">
+    <row r="43" ht="13" customHeight="1"/>
+    <row r="44" ht="13" customHeight="1"/>
+    <row r="45" ht="13" customHeight="1"/>
+    <row r="46" ht="13" customHeight="1"/>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="2">
-        <v>1</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1" t="s">
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="2">
-        <v>1</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1" t="s">
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="2">
-        <v>1</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="C49" s="2">
         <v>1</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C56" s="2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="2">
-        <v>1</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1" t="s">
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C59" s="2">
-        <v>1</v>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" s="2">
         <v>1.2</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C63" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C64" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>114</v>
+      <c r="D66" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C67" s="2">
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="2">
         <v>0.7</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>121</v>
+      <c r="D71" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
